--- a/src/main/webapp/学校基础信息模板表.xlsx
+++ b/src/main/webapp/学校基础信息模板表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t/>
   </si>
@@ -33,10 +33,31 @@
     <t>班级</t>
   </si>
   <si>
+    <t>河南工程学院</t>
+  </si>
+  <si>
+    <t>计算机学院</t>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+  </si>
+  <si>
+    <t>1741</t>
+  </si>
+  <si>
     <t>校区</t>
   </si>
   <si>
     <t>建筑物</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>西校区</t>
+  </si>
+  <si>
+    <t>操场</t>
   </si>
 </sst>
 </file>
@@ -117,6 +138,13 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="2" max="2" width="16.0" customWidth="true"/>
+    <col min="3" max="3" width="16.0" customWidth="true"/>
+    <col min="4" max="4" width="24.0" customWidth="true"/>
+    <col min="5" max="5" width="8.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
@@ -133,6 +161,23 @@
       </c>
       <c r="E1" t="s" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -147,6 +192,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="2" max="2" width="16.0" customWidth="true"/>
+    <col min="3" max="3" width="16.0" customWidth="true"/>
+    <col min="4" max="4" width="16.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -156,10 +207,24 @@
         <v>2</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>7</v>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
